--- a/MSC_mean_lt.xlsx
+++ b/MSC_mean_lt.xlsx
@@ -69,7 +69,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C556"/>
+  <dimension ref="A1:C561"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -586,7 +586,7 @@
         <v>30348</v>
       </c>
       <c r="B63" s="2">
-        <v>3.8939232966038166</v>
+        <v>3.8939232966038167</v>
       </c>
       <c r="C63" s="2">
         <v>5</v>
@@ -913,7 +913,7 @@
         <v>31472</v>
       </c>
       <c r="B100" s="2">
-        <v>3.9367088503392313</v>
+        <v>3.9367088503392314</v>
       </c>
       <c r="C100" s="2">
         <v>4</v>
@@ -1530,7 +1530,7 @@
         <v>33635</v>
       </c>
       <c r="B171" s="2">
-        <v>4.3785587377956094</v>
+        <v>4.3785587377956095</v>
       </c>
       <c r="C171" s="2">
         <v>4</v>
@@ -1684,7 +1684,7 @@
         <v>34060</v>
       </c>
       <c r="B185" s="2">
-        <v>4.0531622776989042</v>
+        <v>4.0531622776989043</v>
       </c>
       <c r="C185" s="2">
         <v>4</v>
@@ -1706,7 +1706,7 @@
         <v>34121</v>
       </c>
       <c r="B187" s="2">
-        <v>4.6008403361344516</v>
+        <v>4.6008403361344517</v>
       </c>
       <c r="C187" s="2">
         <v>4</v>
@@ -2234,7 +2234,7 @@
         <v>35582</v>
       </c>
       <c r="B235" s="2">
-        <v>4.0252100840335991</v>
+        <v>4.0252100840335992</v>
       </c>
       <c r="C235" s="2">
         <v>3</v>
@@ -2454,7 +2454,7 @@
         <v>36192</v>
       </c>
       <c r="B255" s="2">
-        <v>3.4323094425483371</v>
+        <v>3.4323094425483372</v>
       </c>
       <c r="C255" s="2">
         <v>3</v>
@@ -2465,7 +2465,7 @@
         <v>36220</v>
       </c>
       <c r="B256" s="2">
-        <v>3.1634213848097938</v>
+        <v>3.1634213848097939</v>
       </c>
       <c r="C256" s="2">
         <v>3</v>
@@ -2795,7 +2795,7 @@
         <v>37135</v>
       </c>
       <c r="B286" s="2">
-        <v>2.9428571428571479</v>
+        <v>2.942857142857148</v>
       </c>
       <c r="C286" s="2">
         <v>3</v>
@@ -2872,7 +2872,7 @@
         <v>37347</v>
       </c>
       <c r="B293" s="2">
-        <v>3.4179456906729508</v>
+        <v>3.4179456906729509</v>
       </c>
       <c r="C293" s="2">
         <v>3</v>
@@ -3026,7 +3026,7 @@
         <v>37773</v>
       </c>
       <c r="B307" s="2">
-        <v>3.1565113500597501</v>
+        <v>3.1565113500597502</v>
       </c>
       <c r="C307" s="2">
         <v>3</v>
@@ -3191,7 +3191,7 @@
         <v>38231</v>
       </c>
       <c r="B322" s="2">
-        <v>3.2828162291169471</v>
+        <v>3.2828162291169472</v>
       </c>
       <c r="C322" s="2">
         <v>3</v>
@@ -3224,7 +3224,7 @@
         <v>38322</v>
       </c>
       <c r="B325" s="2">
-        <v>3.3808487486398104</v>
+        <v>3.3808487486398105</v>
       </c>
       <c r="C325" s="2">
         <v>3</v>
@@ -3477,7 +3477,7 @@
         <v>39022</v>
       </c>
       <c r="B348" s="2">
-        <v>3.4912998976458391</v>
+        <v>3.4912998976458392</v>
       </c>
       <c r="C348" s="2">
         <v>3</v>
@@ -3543,7 +3543,7 @@
         <v>39203</v>
       </c>
       <c r="B354" s="2">
-        <v>3.5272914521112035</v>
+        <v>3.5272914521112036</v>
       </c>
       <c r="C354" s="2">
         <v>3</v>
@@ -3642,7 +3642,7 @@
         <v>39479</v>
       </c>
       <c r="B363" s="2">
-        <v>3.237885462555055</v>
+        <v>3.2378854625550551</v>
       </c>
       <c r="C363" s="2">
         <v>3</v>
@@ -3686,7 +3686,7 @@
         <v>39600</v>
       </c>
       <c r="B367" s="2">
-        <v>4.1846318036285854</v>
+        <v>4.1846318036285855</v>
       </c>
       <c r="C367" s="2">
         <v>3</v>
@@ -3950,7 +3950,7 @@
         <v>40330</v>
       </c>
       <c r="B391" s="2">
-        <v>3.0218295218295363</v>
+        <v>3.0218295218295364</v>
       </c>
       <c r="C391" s="2">
         <v>3</v>
@@ -4478,7 +4478,7 @@
         <v>41791</v>
       </c>
       <c r="B439" s="2">
-        <v>3.414068745003989</v>
+        <v>3.4140687450039891</v>
       </c>
       <c r="C439" s="2">
         <v>3</v>
@@ -4687,7 +4687,7 @@
         <v>42370</v>
       </c>
       <c r="B458" s="2">
-        <v>3.4151593453918911</v>
+        <v>3.4151593453918912</v>
       </c>
       <c r="C458" s="2">
         <v>3</v>
@@ -4885,7 +4885,7 @@
         <v>42917</v>
       </c>
       <c r="B476" s="2">
-        <v>2.8071585098612108</v>
+        <v>2.8071585098612109</v>
       </c>
       <c r="C476" s="2">
         <v>3</v>
@@ -5149,7 +5149,7 @@
         <v>43647</v>
       </c>
       <c r="B500" s="2">
-        <v>3.0116788321167864</v>
+        <v>3.0116788321167865</v>
       </c>
       <c r="C500" s="2">
         <v>3</v>
@@ -5358,7 +5358,7 @@
         <v>44228</v>
       </c>
       <c r="B519" s="2">
-        <v>3.2414772727272569</v>
+        <v>3.241477272727257</v>
       </c>
       <c r="C519" s="2">
         <v>3</v>
@@ -5771,6 +5771,61 @@
         <v>3</v>
       </c>
     </row>
+    <row r="557">
+      <c r="A557" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B557" s="2">
+        <v>3.2581090407177285</v>
+      </c>
+      <c r="C557" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B558" s="2">
+        <v>3.3114806419584104</v>
+      </c>
+      <c r="C558" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B559" s="2">
+        <v>3.7531364355805192</v>
+      </c>
+      <c r="C559" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B560" s="2">
+        <v>1.6888888891832328</v>
+      </c>
+      <c r="C560" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B561" s="2">
+        <v>7.8039216389033364</v>
+      </c>
+      <c r="C561" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/MSC_mean_lt.xlsx
+++ b/MSC_mean_lt.xlsx
@@ -5776,7 +5776,7 @@
         <v>45383</v>
       </c>
       <c r="B557" s="2">
-        <v>3.2581090407177285</v>
+        <v>3.547665369649835</v>
       </c>
       <c r="C557" s="2">
         <v>3</v>
@@ -5787,7 +5787,7 @@
         <v>45413</v>
       </c>
       <c r="B558" s="2">
-        <v>3.3114806419584104</v>
+        <v>3.6026375477038712</v>
       </c>
       <c r="C558" s="2">
         <v>3</v>
@@ -5798,7 +5798,7 @@
         <v>45444</v>
       </c>
       <c r="B559" s="2">
-        <v>3.7531364355805192</v>
+        <v>3.8348921734169981</v>
       </c>
       <c r="C559" s="2">
         <v>3</v>
@@ -5809,10 +5809,10 @@
         <v>45474</v>
       </c>
       <c r="B560" s="2">
-        <v>1.6888888891832328</v>
+        <v>3.9035449592967195</v>
       </c>
       <c r="C560" s="2">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="561">
@@ -5820,10 +5820,10 @@
         <v>45505</v>
       </c>
       <c r="B561" s="2">
-        <v>7.8039216389033364</v>
+        <v>3.7964254495037535</v>
       </c>
       <c r="C561" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/MSC_mean_lt.xlsx
+++ b/MSC_mean_lt.xlsx
@@ -69,7 +69,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C561"/>
+  <dimension ref="A1:C567"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5826,6 +5826,72 @@
         <v>3</v>
       </c>
     </row>
+    <row r="562">
+      <c r="A562" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B562" s="2">
+        <v>3.6300718468268096</v>
+      </c>
+      <c r="C562" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B563" s="2">
+        <v>3.4590725565951042</v>
+      </c>
+      <c r="C563" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B564" s="2">
+        <v>3.3850959326505774</v>
+      </c>
+      <c r="C564" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B565" s="2">
+        <v>2.9430802164335881</v>
+      </c>
+      <c r="C565" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B566" s="2">
+        <v>3.451973780215102</v>
+      </c>
+      <c r="C566" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B567" s="2">
+        <v>3.7916655071943244</v>
+      </c>
+      <c r="C567" s="2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/MSC_mean_lt.xlsx
+++ b/MSC_mean_lt.xlsx
@@ -69,7 +69,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C567"/>
+  <dimension ref="A1:C569"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -586,7 +586,7 @@
         <v>30348</v>
       </c>
       <c r="B63" s="2">
-        <v>3.8939232966038167</v>
+        <v>3.8939232966038166</v>
       </c>
       <c r="C63" s="2">
         <v>5</v>
@@ -913,7 +913,7 @@
         <v>31472</v>
       </c>
       <c r="B100" s="2">
-        <v>3.9367088503392314</v>
+        <v>3.9367088503392313</v>
       </c>
       <c r="C100" s="2">
         <v>4</v>
@@ -1530,7 +1530,7 @@
         <v>33635</v>
       </c>
       <c r="B171" s="2">
-        <v>4.3785587377956095</v>
+        <v>4.3785587377956094</v>
       </c>
       <c r="C171" s="2">
         <v>4</v>
@@ -1684,7 +1684,7 @@
         <v>34060</v>
       </c>
       <c r="B185" s="2">
-        <v>4.0531622776989043</v>
+        <v>4.0531622776989042</v>
       </c>
       <c r="C185" s="2">
         <v>4</v>
@@ -1706,7 +1706,7 @@
         <v>34121</v>
       </c>
       <c r="B187" s="2">
-        <v>4.6008403361344517</v>
+        <v>4.6008403361344516</v>
       </c>
       <c r="C187" s="2">
         <v>4</v>
@@ -2234,7 +2234,7 @@
         <v>35582</v>
       </c>
       <c r="B235" s="2">
-        <v>4.0252100840335992</v>
+        <v>4.0252100840335991</v>
       </c>
       <c r="C235" s="2">
         <v>3</v>
@@ -2454,7 +2454,7 @@
         <v>36192</v>
       </c>
       <c r="B255" s="2">
-        <v>3.4323094425483372</v>
+        <v>3.4323094425483371</v>
       </c>
       <c r="C255" s="2">
         <v>3</v>
@@ -2465,7 +2465,7 @@
         <v>36220</v>
       </c>
       <c r="B256" s="2">
-        <v>3.1634213848097939</v>
+        <v>3.1634213848097938</v>
       </c>
       <c r="C256" s="2">
         <v>3</v>
@@ -2795,7 +2795,7 @@
         <v>37135</v>
       </c>
       <c r="B286" s="2">
-        <v>2.942857142857148</v>
+        <v>2.9428571428571479</v>
       </c>
       <c r="C286" s="2">
         <v>3</v>
@@ -2872,7 +2872,7 @@
         <v>37347</v>
       </c>
       <c r="B293" s="2">
-        <v>3.4179456906729509</v>
+        <v>3.4179456906729508</v>
       </c>
       <c r="C293" s="2">
         <v>3</v>
@@ -3026,7 +3026,7 @@
         <v>37773</v>
       </c>
       <c r="B307" s="2">
-        <v>3.1565113500597502</v>
+        <v>3.1565113500597501</v>
       </c>
       <c r="C307" s="2">
         <v>3</v>
@@ -3191,7 +3191,7 @@
         <v>38231</v>
       </c>
       <c r="B322" s="2">
-        <v>3.2828162291169472</v>
+        <v>3.2828162291169471</v>
       </c>
       <c r="C322" s="2">
         <v>3</v>
@@ -3224,7 +3224,7 @@
         <v>38322</v>
       </c>
       <c r="B325" s="2">
-        <v>3.3808487486398105</v>
+        <v>3.3808487486398104</v>
       </c>
       <c r="C325" s="2">
         <v>3</v>
@@ -3477,7 +3477,7 @@
         <v>39022</v>
       </c>
       <c r="B348" s="2">
-        <v>3.4912998976458392</v>
+        <v>3.4912998976458391</v>
       </c>
       <c r="C348" s="2">
         <v>3</v>
@@ -3543,7 +3543,7 @@
         <v>39203</v>
       </c>
       <c r="B354" s="2">
-        <v>3.5272914521112036</v>
+        <v>3.5272914521112035</v>
       </c>
       <c r="C354" s="2">
         <v>3</v>
@@ -3642,7 +3642,7 @@
         <v>39479</v>
       </c>
       <c r="B363" s="2">
-        <v>3.2378854625550551</v>
+        <v>3.237885462555055</v>
       </c>
       <c r="C363" s="2">
         <v>3</v>
@@ -3686,7 +3686,7 @@
         <v>39600</v>
       </c>
       <c r="B367" s="2">
-        <v>4.1846318036285855</v>
+        <v>4.1846318036285854</v>
       </c>
       <c r="C367" s="2">
         <v>3</v>
@@ -3950,7 +3950,7 @@
         <v>40330</v>
       </c>
       <c r="B391" s="2">
-        <v>3.0218295218295364</v>
+        <v>3.0218295218295363</v>
       </c>
       <c r="C391" s="2">
         <v>3</v>
@@ -4478,7 +4478,7 @@
         <v>41791</v>
       </c>
       <c r="B439" s="2">
-        <v>3.4140687450039891</v>
+        <v>3.414068745003989</v>
       </c>
       <c r="C439" s="2">
         <v>3</v>
@@ -4687,7 +4687,7 @@
         <v>42370</v>
       </c>
       <c r="B458" s="2">
-        <v>3.4151593453918912</v>
+        <v>3.4151593453918911</v>
       </c>
       <c r="C458" s="2">
         <v>3</v>
@@ -4885,7 +4885,7 @@
         <v>42917</v>
       </c>
       <c r="B476" s="2">
-        <v>2.8071585098612109</v>
+        <v>2.8071585098612108</v>
       </c>
       <c r="C476" s="2">
         <v>3</v>
@@ -5149,7 +5149,7 @@
         <v>43647</v>
       </c>
       <c r="B500" s="2">
-        <v>3.0116788321167865</v>
+        <v>3.0116788321167864</v>
       </c>
       <c r="C500" s="2">
         <v>3</v>
@@ -5358,7 +5358,7 @@
         <v>44228</v>
       </c>
       <c r="B519" s="2">
-        <v>3.241477272727257</v>
+        <v>3.2414772727272569</v>
       </c>
       <c r="C519" s="2">
         <v>3</v>
@@ -5787,7 +5787,7 @@
         <v>45413</v>
       </c>
       <c r="B558" s="2">
-        <v>3.6026375477038712</v>
+        <v>3.7880288799056112</v>
       </c>
       <c r="C558" s="2">
         <v>3</v>
@@ -5798,7 +5798,7 @@
         <v>45444</v>
       </c>
       <c r="B559" s="2">
-        <v>3.8348921734169981</v>
+        <v>3.7689617781435949</v>
       </c>
       <c r="C559" s="2">
         <v>3</v>
@@ -5842,7 +5842,7 @@
         <v>45566</v>
       </c>
       <c r="B563" s="2">
-        <v>3.4590725565951042</v>
+        <v>3.4324170046113491</v>
       </c>
       <c r="C563" s="2">
         <v>3</v>
@@ -5853,7 +5853,7 @@
         <v>45597</v>
       </c>
       <c r="B564" s="2">
-        <v>3.3850959326505774</v>
+        <v>3.40756905449547</v>
       </c>
       <c r="C564" s="2">
         <v>3</v>
@@ -5864,7 +5864,7 @@
         <v>45627</v>
       </c>
       <c r="B565" s="2">
-        <v>2.9430802164335881</v>
+        <v>2.944720415032775</v>
       </c>
       <c r="C565" s="2">
         <v>3</v>
@@ -5875,7 +5875,7 @@
         <v>45658</v>
       </c>
       <c r="B566" s="2">
-        <v>3.451973780215102</v>
+        <v>3.3958076650640714</v>
       </c>
       <c r="C566" s="2">
         <v>3</v>
@@ -5886,9 +5886,31 @@
         <v>45689</v>
       </c>
       <c r="B567" s="2">
-        <v>3.7916655071943244</v>
+        <v>3.6363679255675789</v>
       </c>
       <c r="C567" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B568" s="2">
+        <v>3.9863475756308953</v>
+      </c>
+      <c r="C568" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B569" s="2">
+        <v>4.2747750743596944</v>
+      </c>
+      <c r="C569" s="2">
         <v>3</v>
       </c>
     </row>
